--- a/Excel_SEBAL_v3_4_0.xlsx
+++ b/Excel_SEBAL_v3_4_0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5748" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5748" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General_Input" sheetId="1" r:id="rId1"/>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK13"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,9 +1133,6 @@
       <c r="J2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="4">
-        <v>0.75</v>
-      </c>
       <c r="L2" s="4">
         <v>1</v>
       </c>
@@ -1183,9 +1180,7 @@
       <c r="J3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="4">
-        <v>0.75</v>
-      </c>
+      <c r="K3" s="4"/>
       <c r="L3" s="4">
         <v>1</v>
       </c>
@@ -1232,9 +1227,6 @@
       </c>
       <c r="J4" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.75</v>
       </c>
       <c r="L4" s="4">
         <v>1</v>
@@ -2381,7 +2373,7 @@
   <dimension ref="A1:AMK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2521,7 +2513,7 @@
         <v>0.45</v>
       </c>
       <c r="D5" s="18">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="18">
         <v>7.0000000000000007E-2</v>
@@ -3623,7 +3615,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4028,8 +4020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
